--- a/medicine/Enfance/Jean-Louis_Bouquet/Jean-Louis_Bouquet.xlsx
+++ b/medicine/Enfance/Jean-Louis_Bouquet/Jean-Louis_Bouquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Bouquet, également connu sous les pseudonymes de Jean d'Ansenne et de Nevers-Séverin, est un écrivain et scénariste français, né le 26 août 1898 à Paris et mort le 22 juillet 1978[1] à Issy-les-Moulineaux (Hauts-de-Seine). Il s'est essentiellement consacré à la littérature fantastique et à la littérature policière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Bouquet, également connu sous les pseudonymes de Jean d'Ansenne et de Nevers-Séverin, est un écrivain et scénariste français, né le 26 août 1898 à Paris et mort le 22 juillet 1978 à Issy-les-Moulineaux (Hauts-de-Seine). Il s'est essentiellement consacré à la littérature fantastique et à la littérature policière.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Bouquet a d'abord travaillé dans le cinéma, en particulier comme scénariste et réalisateur de plusieurs moyens métrages comme Studio à louer (1935). De 1932 à 1934, il tourne sept films dont il assure également le montage. Il arrête de travailler pour le cinéma en 1950 avec Les Deux Gamines, adaptation des Deux Gamines de Louis Feuillade réalisée par Maurice de Canonge.
 Son œuvre d'écrivain fantastique est reconnue à partir de 1951, avec Le Visage de feu, recueil de nouvelles écrites antérieurement, qui sera suivi en 1956 par Aux portes des ténèbres. Ces recueils sont considérés comme des classiques du genre.
 Jean Louis Bouquet est surtout un auteur de nouvelles : on se reportera aux sommaires du Visage de Feu et des Filles de la nuit, un volume collectif, pour connaitre le titre d'un certain nombre d'entre elles : ces titres sont souvent poétiques et explicitent la poétique propre de l'auteur.
-Il est l'auteur d'une œuvre abondante (scénarios, romans populaires illustrés, romans adaptés, novélisation de films, romans pour jeunes, romans courts, nouvelles, synopsis, nouvelles sous pseudonyme, etc.) dont une partie seulement est accessible[2].
+Il est l'auteur d'une œuvre abondante (scénarios, romans populaires illustrés, romans adaptés, novélisation de films, romans pour jeunes, romans courts, nouvelles, synopsis, nouvelles sous pseudonyme, etc.) dont une partie seulement est accessible.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Jugements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Il n’est pas aisé de dire ce qui sous-tend aujourd’hui communément un certain nombre de démarches… qui, pour moi, disposent entre toutes d’un pouvoir alertant. Je me bornerai à mentionner parmi elles, dans le sens de la pénétration du monde par la voie occulte, les œuvres de Raymond Abellio, la détection d’un nouveau fantastique : Le Visage de Feu de Jean-Louis Bouquet. », André Breton[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Il n’est pas aisé de dire ce qui sous-tend aujourd’hui communément un certain nombre de démarches… qui, pour moi, disposent entre toutes d’un pouvoir alertant. Je me bornerai à mentionner parmi elles, dans le sens de la pénétration du monde par la voie occulte, les œuvres de Raymond Abellio, la détection d’un nouveau fantastique : Le Visage de Feu de Jean-Louis Bouquet. », André Breton</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Scénarios</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1920 : Tristan et Yseult, film muet français réalisé par Maurice Mariaud
 1924 : L'Enfant des halles, film muet français réalisé par René Leprince
@@ -632,8 +650,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Œuvres fantastiques
-Le Visage de feu, 1951, nouvelles ; Marabout, édition définitive, 1978 ; contient :
+          <t>Œuvres fantastiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Visage de feu, 1951, nouvelles ; Marabout, édition définitive, 1978 ; contient :
 Liminaire
 Alastor, ou Le Visage de Feu
 Assirata, ou Le Miroir enchanté
@@ -643,34 +666,219 @@
 Aux portes des ténèbres, nouvelles, 1956
 Les Filles de la nuit, réédition de Aux portes des ténèbres, Marabout, 1978, puis Fleuve noir, 1998
 Mondes noirs, 1980, posthume
-« La belle à la toque verte », conte, Charlie mensuel, janvier 1979, p. 10-11
-Œuvres policières
-Série Paul Dumviller
-L'Homme aux fétiches / L'Ombre du vampire, Éditions Janicot, coll. « rouge » no 29 (1943)
+« La belle à la toque verte », conte, Charlie mensuel, janvier 1979, p. 10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres policières</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Paul Dumviller</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Homme aux fétiches / L'Ombre du vampire, Éditions Janicot, coll. « rouge » no 29 (1943)
 Le Caveau des angoisses / Le Mystère Skanikoff, Éditions Janicot, coll. « rouge » no 35 (1943)
 La Reine des ténèbres, Éditions Janicot, coll. « rouge » no 38 (1943)
 Le Fantôme du parc Monceau, Éditions Janicot, coll. « rouge » no 42 (1943)
-Irène, fille fauve, Éditions Janicot, coll. « rouge » no 45 (1943)
-Série Les Mystères de Montmartre
-Les Mystères de Montmartre, Éditions Janicot, coll. « rouge » no 50 (1943)
+Irène, fille fauve, Éditions Janicot, coll. « rouge » no 45 (1943)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvres policières</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les Mystères de Montmartre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Mystères de Montmartre, Éditions Janicot, coll. « rouge » no 50 (1943)
 Du sang place Pigalle, Éditions Janicot, coll. « rouge » no 54 (1943)
 Les Aventuriers de la Butte, Éditions Janicot, coll. « rouge » no 59 (1943)
 L'Énigme du bal Tabarin, Éditions Janicot, coll. « rouge » no 64 (1944)
-Vingt hommes aux abois, Éditions Janicot, coll. « rouge » no 66 (1944)
-Série Jean Laventure
-L'Homme aux antipodes / Drame au bout du monde, Éditions Janicot, coll. « rouge » no 74 (1944)
+Vingt hommes aux abois, Éditions Janicot, coll. « rouge » no 66 (1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Œuvres policières</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Jean Laventure</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Homme aux antipodes / Drame au bout du monde, Éditions Janicot, coll. « rouge » no 74 (1944)
 Le Dock des suicidés, Éditions Janicot, coll. « rouge » no 78 (1944)
 L'Inconnue d'Anvers, Éditions Janicot, coll. « rouge » no 82 (1944)
 Un crime au sérail, Éditions Janicot, coll. « rouge » no 88 (1944)
-La Couronne sanglante, Éditions Janicot, coll. « rouge » no 96 (1944)
-Autres romans policiers
-Le Sorcier mystérieux, Renaissance du livre, coll. « Ciné Collection » (1921)
+La Couronne sanglante, Éditions Janicot, coll. « rouge » no 96 (1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Œuvres policières</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Sorcier mystérieux, Renaissance du livre, coll. « Ciné Collection » (1921)
 La Main invisible, Renaissance du livre, coll. « Ciné Collection » (1921)
 Le Maître des ténèbres, Renaissance du livre, coll. « Les Romans Cinéma » (1922)
 L'Affaire des squelettes, Éditions Janicot, coll. « rouge » no 102 (1945)
-La Vengeance de l'araignée, Éditions Janicot, coll. « rouge » no 105 (1945)
-Littérature d'enfance et de jeunesse
-La Porte aux étoiles, LCE, coll. « Romans de la jeune France » (1941)</t>
+La Vengeance de l'araignée, Éditions Janicot, coll. « rouge » no 105 (1945)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Bouquet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Porte aux étoiles, LCE, coll. « Romans de la jeune France » (1941)</t>
         </is>
       </c>
     </row>
